--- a/resource/RangJee-Hisab.xlsx
+++ b/resource/RangJee-Hisab.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.kumar1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.kumar1\Desktop\MyFolder\Eclipse-Workspace\Java_Practice_Code\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5E6363-9820-4990-9B4C-753C2131B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3123B-F43B-4184-A478-65255031FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hishab" sheetId="1" r:id="rId1"/>
+    <sheet name="Interviews" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -128,6 +129,165 @@
   </si>
   <si>
     <t>दिनांक</t>
+  </si>
+  <si>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Congnizant</t>
+  </si>
+  <si>
+    <t>Chandana</t>
+  </si>
+  <si>
+    <t>Tech Mahindra</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>Nisum</t>
+  </si>
+  <si>
+    <t>Quest Global</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Shivani Bansal</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Wating</t>
+  </si>
+  <si>
+    <t>HR Round</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Capco</t>
+  </si>
+  <si>
+    <t>Renu Jain</t>
+  </si>
+  <si>
+    <t>Vidya Sagar</t>
+  </si>
+  <si>
+    <t>Suvarna Gupta</t>
+  </si>
+  <si>
+    <t>Amitanshu</t>
+  </si>
+  <si>
+    <t>Siraj ahamad</t>
+  </si>
+  <si>
+    <t>EdgeVerve(infosys)</t>
+  </si>
+  <si>
+    <t>Sweta/Jestie</t>
+  </si>
+  <si>
+    <t>Mamta</t>
+  </si>
+  <si>
+    <t>Accolite</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No Interview invitation</t>
+  </si>
+  <si>
+    <t>Omkar Singh</t>
+  </si>
+  <si>
+    <t>Racco</t>
+  </si>
+  <si>
+    <t>Mohit Arrora</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Mobile No.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Capgimini</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Bnagalore</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>IBS Software</t>
+  </si>
+  <si>
+    <t>Altmetric</t>
+  </si>
+  <si>
+    <t>Vinitha</t>
+  </si>
+  <si>
+    <t>Arvind</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Unisys Corporation</t>
+  </si>
+  <si>
+    <t>Inderjeet kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPAM </t>
+  </si>
+  <si>
+    <t>Valeryia</t>
+  </si>
+  <si>
+    <t>NTT Data</t>
+  </si>
+  <si>
+    <t>Deepali</t>
   </si>
 </sst>
 </file>
@@ -176,7 +336,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +346,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,56 +487,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A735107-2BD6-46D0-ACF3-01D14D3E3449}">
   <dimension ref="C2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -670,201 +905,201 @@
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
+    <row r="2" spans="3:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="16">
+      <c r="C3" s="8">
         <v>45110</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>50000</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12">
+      <c r="E3" s="26"/>
+      <c r="F3" s="6">
         <v>150000</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="16">
+      <c r="C4" s="8">
         <v>45111</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>36000</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12">
+      <c r="E4" s="27"/>
+      <c r="F4" s="6">
         <v>50000</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="16">
+      <c r="C5" s="8">
         <v>45176</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>200000</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12">
+      <c r="E5" s="27"/>
+      <c r="F5" s="6">
         <v>1700</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="16">
+      <c r="C6" s="8">
         <v>45184</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>300000</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12">
+      <c r="E6" s="27"/>
+      <c r="F6" s="6">
         <v>50000</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="16">
+      <c r="C7" s="8">
         <v>45183</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>50000</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="12">
+      <c r="E7" s="27"/>
+      <c r="F7" s="6">
         <v>306000</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="16">
+      <c r="C8" s="8">
         <v>45186</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>56500</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="12">
+      <c r="E8" s="27"/>
+      <c r="F8" s="6">
         <v>3300</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="12">
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="6">
         <v>21400</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12">
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="6">
         <v>115000</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="6">
         <v>15000</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="3:7" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="4">
         <f>SUM(D3:D13)</f>
         <v>692500</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10">
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
         <f>SUM(F3:F13)</f>
         <v>712400</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
@@ -891,4 +1126,472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F87D95-79CD-4C3D-A156-EC063F86200C}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="19">
+        <v>45234</v>
+      </c>
+      <c r="G2" s="19">
+        <v>45238</v>
+      </c>
+      <c r="H2" s="22">
+        <v>45241</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="19">
+        <v>45233</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="19">
+        <v>45255</v>
+      </c>
+      <c r="G4" s="22">
+        <v>45257</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>45252</v>
+      </c>
+      <c r="G5" s="18">
+        <v>45259</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8008611732</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>45255</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6">
+        <v>9172426335</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="20">
+        <v>45255</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7846991085</v>
+      </c>
+      <c r="E8" s="19">
+        <v>45252</v>
+      </c>
+      <c r="F8" s="19">
+        <v>45255</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="19">
+        <v>45248</v>
+      </c>
+      <c r="F9" s="19">
+        <v>45251</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="22">
+        <v>45252</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="18">
+        <v>45258</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="19">
+        <v>45248</v>
+      </c>
+      <c r="G12" s="19">
+        <v>45254</v>
+      </c>
+      <c r="H12" s="22">
+        <v>45257</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="19">
+        <v>45255</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="22">
+        <v>45257</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="6">
+        <v>9483500881</v>
+      </c>
+      <c r="E15" s="19">
+        <v>45257</v>
+      </c>
+      <c r="F15" s="18">
+        <v>45259</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9650773274</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="20">
+        <v>45258</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="18">
+        <v>45264</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="18">
+        <v>45258</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resource/RangJee-Hisab.xlsx
+++ b/resource/RangJee-Hisab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.kumar1\Desktop\MyFolder\Eclipse-Workspace\Java_Practice_Code\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3123B-F43B-4184-A478-65255031FA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF80B3-8F0E-41CD-BE78-F94C32DFB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hishab" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -143,9 +143,6 @@
     <t>Tech Mahindra</t>
   </si>
   <si>
-    <t>HCL</t>
-  </si>
-  <si>
     <t>Nisum</t>
   </si>
   <si>
@@ -182,57 +179,21 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Capco</t>
-  </si>
-  <si>
-    <t>Renu Jain</t>
-  </si>
-  <si>
     <t>Vidya Sagar</t>
   </si>
   <si>
-    <t>Suvarna Gupta</t>
-  </si>
-  <si>
-    <t>Amitanshu</t>
-  </si>
-  <si>
     <t>Siraj ahamad</t>
   </si>
   <si>
-    <t>EdgeVerve(infosys)</t>
-  </si>
-  <si>
-    <t>Sweta/Jestie</t>
-  </si>
-  <si>
     <t>Mamta</t>
   </si>
   <si>
-    <t>Accolite</t>
-  </si>
-  <si>
-    <t>Aruna</t>
-  </si>
-  <si>
     <t>Volkswagen</t>
   </si>
   <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>No Interview invitation</t>
-  </si>
-  <si>
-    <t>Omkar Singh</t>
-  </si>
-  <si>
-    <t>Racco</t>
-  </si>
-  <si>
-    <t>Mohit Arrora</t>
-  </si>
-  <si>
     <t>Person</t>
   </si>
   <si>
@@ -251,43 +212,106 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Bnagalore</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
-    <t>IBS Software</t>
-  </si>
-  <si>
-    <t>Altmetric</t>
-  </si>
-  <si>
-    <t>Vinitha</t>
-  </si>
-  <si>
-    <t>Arvind</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>Unisys Corporation</t>
-  </si>
-  <si>
-    <t>Inderjeet kaur</t>
-  </si>
-  <si>
     <t xml:space="preserve">EPAM </t>
   </si>
   <si>
     <t>Valeryia</t>
   </si>
   <si>
-    <t>NTT Data</t>
-  </si>
-  <si>
-    <t>Deepali</t>
+    <t>UST Global</t>
+  </si>
+  <si>
+    <t>Kirubakaran</t>
+  </si>
+  <si>
+    <t>Rajiv Ranjan</t>
+  </si>
+  <si>
+    <t>TalentNeuron/Gartner</t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>Aparna</t>
+  </si>
+  <si>
+    <t>Kellton</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>3pillarglobal</t>
+  </si>
+  <si>
+    <t>Priyag raj</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>05:00 - 05:45</t>
+  </si>
+  <si>
+    <t>03:00 - 03:30</t>
+  </si>
+  <si>
+    <t>03:30 - 05:00</t>
+  </si>
+  <si>
+    <t>12:30 - 01:00</t>
+  </si>
+  <si>
+    <t>04:30 - 06:00</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>Akriti</t>
+  </si>
+  <si>
+    <t>07:30 - 08:00</t>
+  </si>
+  <si>
+    <t>Photon</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>10:30 - 11:30</t>
+  </si>
+  <si>
+    <t>Heta</t>
+  </si>
+  <si>
+    <t>DataOrb</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>11:30 - 12:30</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>KK</t>
   </si>
 </sst>
 </file>
@@ -487,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -548,6 +572,21 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -927,7 +966,7 @@
       <c r="D3" s="6">
         <v>50000</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="6">
         <v>150000</v>
       </c>
@@ -942,7 +981,7 @@
       <c r="D4" s="6">
         <v>36000</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="6">
         <v>50000</v>
       </c>
@@ -957,7 +996,7 @@
       <c r="D5" s="6">
         <v>200000</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="6">
         <v>1700</v>
       </c>
@@ -972,7 +1011,7 @@
       <c r="D6" s="6">
         <v>300000</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="6">
         <v>50000</v>
       </c>
@@ -987,7 +1026,7 @@
       <c r="D7" s="6">
         <v>50000</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="6">
         <v>306000</v>
       </c>
@@ -1002,7 +1041,7 @@
       <c r="D8" s="6">
         <v>56500</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="6">
         <v>3300</v>
       </c>
@@ -1013,7 +1052,7 @@
     <row r="9" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="27"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="6">
         <v>21400</v>
       </c>
@@ -1024,7 +1063,7 @@
     <row r="10" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="27"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="6">
         <v>115000</v>
       </c>
@@ -1035,14 +1074,14 @@
     <row r="11" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="27"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="27"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="6">
         <v>15000</v>
       </c>
@@ -1053,7 +1092,7 @@
     <row r="13" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
@@ -1075,31 +1114,31 @@
       </c>
     </row>
     <row r="15" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
@@ -1130,466 +1169,631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F87D95-79CD-4C3D-A156-EC063F86200C}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G2" s="19">
+        <v>45234</v>
+      </c>
+      <c r="H2" s="19">
+        <v>45238</v>
+      </c>
+      <c r="I2" s="19">
+        <v>45241</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="19">
+        <v>45248</v>
+      </c>
+      <c r="H3" s="19">
+        <v>45254</v>
+      </c>
+      <c r="I3" s="19">
+        <v>45260</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="19">
+        <v>45252</v>
+      </c>
+      <c r="G4" s="19">
+        <v>45259</v>
+      </c>
+      <c r="H4" s="22">
+        <v>45264</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19">
-        <v>45234</v>
-      </c>
-      <c r="G2" s="19">
-        <v>45238</v>
-      </c>
-      <c r="H2" s="22">
-        <v>45241</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="E5" s="6">
+        <v>8008611732</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19">
+        <v>45255</v>
+      </c>
+      <c r="H5" s="22">
+        <v>45262</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="19">
         <v>45233</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="19">
-        <v>45255</v>
-      </c>
-      <c r="G4" s="22">
-        <v>45257</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19">
-        <v>45252</v>
-      </c>
-      <c r="G5" s="18">
-        <v>45259</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8008611732</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="19">
-        <v>45255</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="19">
+        <v>45243</v>
+      </c>
       <c r="I6" s="6"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9172426335</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="20">
-        <v>45255</v>
-      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6">
-        <v>7846991085</v>
-      </c>
-      <c r="E8" s="19">
-        <v>45252</v>
-      </c>
-      <c r="F8" s="19">
-        <v>45255</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
       <c r="B9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="19">
-        <v>45248</v>
-      </c>
-      <c r="F9" s="19">
-        <v>45251</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="19">
+        <v>45260</v>
+      </c>
+      <c r="H9" s="19">
+        <v>45266</v>
+      </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="22">
-        <v>45252</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="22">
+        <v>45266</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
+      <c r="J10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="18">
-        <v>45258</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="22">
+        <v>45266</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="J11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="19">
-        <v>45248</v>
-      </c>
-      <c r="G12" s="19">
-        <v>45254</v>
-      </c>
-      <c r="H12" s="22">
-        <v>45257</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="20">
+        <v>45267</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="J12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19">
-        <v>45255</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="22">
+        <v>45266</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="22">
-        <v>45257</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45267</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="J14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6">
-        <v>9483500881</v>
-      </c>
-      <c r="E15" s="19">
-        <v>45257</v>
-      </c>
-      <c r="F15" s="18">
-        <v>45259</v>
-      </c>
-      <c r="G15" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="22">
+        <v>45267</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="J15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="6">
-        <v>9650773274</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="20">
-        <v>45258</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="19">
+        <v>45265</v>
+      </c>
+      <c r="G16" s="18">
+        <v>45268</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="J16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="18">
-        <v>45264</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="19">
+        <v>45266</v>
+      </c>
+      <c r="G17" s="18">
+        <v>45268</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="18">
-        <v>45258</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G20" s="18">
+        <v>45271</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G21" s="18">
+        <v>45269</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="20">
+        <v>45262</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/RangJee-Hisab.xlsx
+++ b/resource/RangJee-Hisab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.kumar1\Desktop\MyFolder\Eclipse-Workspace\Java_Practice_Code\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF80B3-8F0E-41CD-BE78-F94C32DFB9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF33A29-F135-4163-8CA6-B6CBAF6654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <r>
       <rPr>
@@ -257,61 +257,58 @@
     <t>Time</t>
   </si>
   <si>
-    <t>05:00 - 05:45</t>
-  </si>
-  <si>
-    <t>03:00 - 03:30</t>
-  </si>
-  <si>
-    <t>03:30 - 05:00</t>
-  </si>
-  <si>
-    <t>12:30 - 01:00</t>
-  </si>
-  <si>
-    <t>04:30 - 06:00</t>
-  </si>
-  <si>
     <t>EY</t>
   </si>
   <si>
     <t>Akriti</t>
   </si>
   <si>
-    <t>07:30 - 08:00</t>
-  </si>
-  <si>
     <t>Photon</t>
   </si>
   <si>
     <t>Rajesh</t>
   </si>
   <si>
-    <t>10:30 - 11:30</t>
-  </si>
-  <si>
-    <t>Heta</t>
-  </si>
-  <si>
-    <t>DataOrb</t>
-  </si>
-  <si>
-    <t>11:00 - 12:00</t>
-  </si>
-  <si>
     <t>ACL</t>
   </si>
   <si>
     <t>Narendra</t>
   </si>
   <si>
-    <t>11:30 - 12:30</t>
-  </si>
-  <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>KK</t>
+    <t>05:30 - 06:00</t>
+  </si>
+  <si>
+    <t>03:00 - 04:00</t>
+  </si>
+  <si>
+    <t>Virtusa</t>
+  </si>
+  <si>
+    <t>12:00 - 12:45</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>03:30 - 06:00</t>
+  </si>
+  <si>
+    <t>02:00 - 03:30</t>
+  </si>
+  <si>
+    <t>Azalio</t>
+  </si>
+  <si>
+    <t>02:30 - 03:00</t>
+  </si>
+  <si>
+    <t>Sayed</t>
+  </si>
+  <si>
+    <t>04:40 - 05:30</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F87D95-79CD-4C3D-A156-EC063F86200C}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,25 +1292,27 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="19">
-        <v>45252</v>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="G4" s="19">
-        <v>45259</v>
-      </c>
-      <c r="H4" s="22">
-        <v>45264</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>45233</v>
+      </c>
+      <c r="H4" s="19">
+        <v>45243</v>
+      </c>
+      <c r="I4" s="19">
+        <v>45262</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="24"/>
@@ -1325,25 +1324,23 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8008611732</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="19">
+        <v>45252</v>
       </c>
       <c r="G5" s="19">
-        <v>45255</v>
+        <v>45259</v>
       </c>
       <c r="H5" s="22">
-        <v>45262</v>
+        <v>45264</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1357,23 +1354,25 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8008611732</v>
+      </c>
       <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="19">
-        <v>45233</v>
-      </c>
-      <c r="H6" s="19">
-        <v>45243</v>
+        <v>45255</v>
+      </c>
+      <c r="H6" s="22">
+        <v>45262</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1386,15 +1385,29 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="19">
+        <v>45266</v>
+      </c>
+      <c r="G7" s="19">
+        <v>45268</v>
+      </c>
+      <c r="H7" s="22">
+        <v>45269</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="24"/>
     </row>
@@ -1414,54 +1427,38 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="19">
-        <v>45260</v>
-      </c>
-      <c r="H9" s="19">
-        <v>45266</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="12" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="22">
-        <v>45266</v>
+        <v>45269</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="24"/>
@@ -1469,25 +1466,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="22">
-        <v>45266</v>
-      </c>
-      <c r="H11" s="6"/>
+      <c r="G11" s="19">
+        <v>45269</v>
+      </c>
+      <c r="H11" s="19">
+        <v>45269</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="24"/>
@@ -1495,25 +1492,25 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="20">
-        <v>45267</v>
+      <c r="F12" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G12" s="19">
+        <v>45269</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="24"/>
@@ -1521,20 +1518,18 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="22">
-        <v>45266</v>
+      <c r="G13" s="18">
+        <v>45269</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1546,97 +1541,83 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
-      <c r="B14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="19">
-        <v>45264</v>
-      </c>
-      <c r="G14" s="22">
-        <v>45267</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="12" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="22">
-        <v>45267</v>
+        <v>45266</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="19">
-        <v>45265</v>
-      </c>
-      <c r="G16" s="18">
-        <v>45268</v>
+      <c r="F16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="22">
+        <v>45266</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="24"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="19">
-        <v>45266</v>
-      </c>
-      <c r="G17" s="18">
-        <v>45268</v>
+        <v>45264</v>
+      </c>
+      <c r="G17" s="22">
+        <v>45267</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1646,12 +1627,20 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="22">
+        <v>45267</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1660,13 +1649,25 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="19">
+        <v>45260</v>
+      </c>
+      <c r="G19" s="19">
+        <v>45266</v>
+      </c>
+      <c r="H19" s="22">
+        <v>45268</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -1675,47 +1676,37 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="19">
-        <v>45264</v>
-      </c>
-      <c r="G20" s="18">
-        <v>45271</v>
-      </c>
-      <c r="H20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="19">
+        <v>45266</v>
+      </c>
+      <c r="H20" s="22">
+        <v>45268</v>
+      </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
-      <c r="B21" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="19">
-        <v>45264</v>
-      </c>
-      <c r="G21" s="18">
-        <v>45269</v>
-      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1724,48 +1715,70 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G22" s="18">
+        <v>45272</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="20">
-        <v>45262</v>
+      <c r="F23" s="6"/>
+      <c r="G23" s="18">
+        <v>45273</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="24"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="20">
+        <v>45267</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1774,26 +1787,40 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K30" s="27"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="24"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/RangJee-Hisab.xlsx
+++ b/resource/RangJee-Hisab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.kumar1\Desktop\MyFolder\Eclipse-Workspace\Java_Practice_Code\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF33A29-F135-4163-8CA6-B6CBAF6654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A3121C-37E3-49A8-9D5F-3DACB2A4E08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{27D50F66-1A2E-4A6E-B081-3AE9569F7C78}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -143,12 +143,6 @@
     <t>Tech Mahindra</t>
   </si>
   <si>
-    <t>Nisum</t>
-  </si>
-  <si>
-    <t>Quest Global</t>
-  </si>
-  <si>
     <t>Scheduled</t>
   </si>
   <si>
@@ -179,15 +173,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Vidya Sagar</t>
-  </si>
-  <si>
     <t>Siraj ahamad</t>
   </si>
   <si>
-    <t>Mamta</t>
-  </si>
-  <si>
     <t>Volkswagen</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Cancelled</t>
   </si>
   <si>
@@ -236,24 +221,6 @@
     <t>TalentNeuron/Gartner</t>
   </si>
   <si>
-    <t>Wipro</t>
-  </si>
-  <si>
-    <t>Aparna</t>
-  </si>
-  <si>
-    <t>Kellton</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>3pillarglobal</t>
-  </si>
-  <si>
-    <t>Priyag raj</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -269,46 +236,25 @@
     <t>Rajesh</t>
   </si>
   <si>
-    <t>ACL</t>
-  </si>
-  <si>
-    <t>Narendra</t>
-  </si>
-  <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>05:30 - 06:00</t>
-  </si>
-  <si>
-    <t>03:00 - 04:00</t>
-  </si>
-  <si>
     <t>Virtusa</t>
   </si>
   <si>
-    <t>12:00 - 12:45</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>03:30 - 06:00</t>
-  </si>
-  <si>
-    <t>02:00 - 03:30</t>
-  </si>
-  <si>
     <t>Azalio</t>
   </si>
   <si>
-    <t>02:30 - 03:00</t>
-  </si>
-  <si>
     <t>Sayed</t>
   </si>
   <si>
-    <t>04:40 - 05:30</t>
+    <t>Coforge</t>
+  </si>
+  <si>
+    <t>04:30 - 06:00</t>
+  </si>
+  <si>
+    <t>Monika</t>
   </si>
 </sst>
 </file>
@@ -508,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,9 +507,6 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,6 +527,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,7 +915,7 @@
       <c r="D3" s="6">
         <v>50000</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="6">
         <v>150000</v>
       </c>
@@ -978,7 +930,7 @@
       <c r="D4" s="6">
         <v>36000</v>
       </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="6">
         <v>50000</v>
       </c>
@@ -993,7 +945,7 @@
       <c r="D5" s="6">
         <v>200000</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="6">
         <v>1700</v>
       </c>
@@ -1008,7 +960,7 @@
       <c r="D6" s="6">
         <v>300000</v>
       </c>
-      <c r="E6" s="32"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="6">
         <v>50000</v>
       </c>
@@ -1023,7 +975,7 @@
       <c r="D7" s="6">
         <v>50000</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="6">
         <v>306000</v>
       </c>
@@ -1038,7 +990,7 @@
       <c r="D8" s="6">
         <v>56500</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="6">
         <v>3300</v>
       </c>
@@ -1049,7 +1001,7 @@
     <row r="9" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="6">
         <v>21400</v>
       </c>
@@ -1060,7 +1012,7 @@
     <row r="10" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="6">
         <v>115000</v>
       </c>
@@ -1071,14 +1023,14 @@
     <row r="11" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="6">
         <v>15000</v>
       </c>
@@ -1089,7 +1041,7 @@
     <row r="13" spans="3:7" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="33"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
@@ -1111,31 +1063,31 @@
       </c>
     </row>
     <row r="15" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="3:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
@@ -1166,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F87D95-79CD-4C3D-A156-EC063F86200C}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1135,7 @@
     <col min="7" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
@@ -1192,53 +1144,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
+      <c r="A1" s="22"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="19">
         <v>45234</v>
@@ -1251,26 +1203,26 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="24"/>
+      <c r="L2" s="23"/>
       <c r="M2" s="13"/>
       <c r="N2" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="19">
         <v>45248</v>
@@ -1283,26 +1235,26 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="24"/>
+      <c r="L3" s="23"/>
       <c r="M3" s="15"/>
       <c r="N3" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="19">
         <v>45233</v>
@@ -1315,104 +1267,94 @@
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="24"/>
+      <c r="L4" s="23"/>
       <c r="M4" s="16"/>
       <c r="N4" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="19">
-        <v>45252</v>
+        <v>45266</v>
       </c>
       <c r="G5" s="19">
-        <v>45259</v>
-      </c>
-      <c r="H5" s="22">
-        <v>45264</v>
-      </c>
-      <c r="I5" s="6"/>
+        <v>45268</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45269</v>
+      </c>
+      <c r="I5" s="21">
+        <v>45272</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="17"/>
       <c r="N5" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6">
-        <v>8008611732</v>
+        <v>9039137137</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="19">
-        <v>45255</v>
-      </c>
-      <c r="H6" s="22">
-        <v>45262</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>45269</v>
+      </c>
+      <c r="H6" s="28">
+        <v>45272</v>
+      </c>
+      <c r="I6" s="29">
+        <v>45272</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="21"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A7" s="23"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="19">
-        <v>45266</v>
-      </c>
-      <c r="G7" s="19">
-        <v>45268</v>
-      </c>
-      <c r="H7" s="22">
-        <v>45269</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="6"/>
@@ -1423,10 +1365,10 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="6"/>
@@ -1437,390 +1379,268 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="22">
+        <v>31</v>
+      </c>
+      <c r="G10" s="19">
         <v>45269</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="21">
+        <v>45269</v>
+      </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>70</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="24"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>33</v>
+      <c r="F11" s="19">
+        <v>45264</v>
       </c>
       <c r="G11" s="19">
         <v>45269</v>
       </c>
-      <c r="H11" s="19">
-        <v>45269</v>
-      </c>
+      <c r="H11" s="17"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="19">
-        <v>45264</v>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="19">
         <v>45269</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="F13" s="19">
         <v>45269</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="G13" s="28">
+        <v>45272</v>
+      </c>
+      <c r="H13" s="27">
+        <v>45272</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="24"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="22">
-        <v>45266</v>
+      <c r="F15" s="19">
+        <v>45264</v>
+      </c>
+      <c r="G15" s="21">
+        <v>45267</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="22">
+      <c r="F16" s="19">
+        <v>45260</v>
+      </c>
+      <c r="G16" s="19">
         <v>45266</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="21">
+        <v>45268</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="24"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="19">
-        <v>45264</v>
-      </c>
-      <c r="G17" s="22">
-        <v>45267</v>
-      </c>
-      <c r="H17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19">
+        <v>45266</v>
+      </c>
+      <c r="H17" s="21">
+        <v>45268</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="A18" s="23"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="22">
-        <v>45267</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="19">
-        <v>45260</v>
-      </c>
-      <c r="G19" s="19">
-        <v>45266</v>
-      </c>
-      <c r="H19" s="22">
-        <v>45268</v>
-      </c>
+        <v>45264</v>
+      </c>
+      <c r="G19" s="18">
+        <v>45274</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="23"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="19">
-        <v>45266</v>
-      </c>
-      <c r="H20" s="22">
-        <v>45268</v>
-      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="24"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="19">
-        <v>45264</v>
-      </c>
-      <c r="G22" s="18">
-        <v>45272</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="18">
-        <v>45273</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="20">
-        <v>45267</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="24"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="27"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K28" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
